--- a/2024/Protokolle/AbrechnungSommerfest.xlsx
+++ b/2024/Protokolle/AbrechnungSommerfest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C941313-057D-45A7-BCF2-57166398364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79164297-2394-452C-B375-239D7B2A38E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7D04EAD6-2597-4F39-B675-4918C080C750}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Sommerfest Selgros</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Spenden</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Sommerfest Rebmann</t>
   </si>
 </sst>
 </file>
@@ -130,64 +136,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -508,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51492C0-6042-4C23-BD99-E456EE41D465}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,141 +569,133 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="8">
-        <f>SUM(F6:F9)</f>
-        <v>-628.35</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B10" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-380.34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="7">
+        <f>SUM(F6:F10)</f>
+        <v>-1008.69</v>
+      </c>
+      <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>45487</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1578.3</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>45487</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1578.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>45487</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="6">
         <v>41.3</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="9">
-        <f>SUM(F14:F15)</f>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="8">
+        <f>SUM(F15:F16)</f>
         <v>1619.6</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13">
-        <f>F10</f>
-        <v>-628.35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="5">
+        <f>F11</f>
+        <v>-1008.69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="14">
-        <f>F16</f>
+      <c r="C22" s="6">
+        <f>F17</f>
         <v>1619.6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="11">
-        <f>SUM(C20:C21)</f>
-        <v>991.24999999999989</v>
+      <c r="C23" s="10">
+        <f>SUM(C21:C22)</f>
+        <v>610.90999999999985</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E6:E10">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E15:F16">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15" xr:uid="{6A75AE6D-2E8E-4225-B634-913EB97715CA}">
-      <formula1>$K$1:$K$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E16" xr:uid="{6A75AE6D-2E8E-4225-B634-913EB97715CA}">
+      <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{3EE3E54F-CE66-4914-A86A-CDAE32D40F12}">
-      <formula1>$M$1:$M$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E10" xr:uid="{3EE3E54F-CE66-4914-A86A-CDAE32D40F12}">
+      <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
